--- a/Excel_Files/review.xlsx
+++ b/Excel_Files/review.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Compass\Communications_Sprints\Sprint_30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCOSTA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3555" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
+    <definedName name="JIRA" localSheetId="0">[2]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -272,9 +270,6 @@
     <t>GOALS</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Start to prepare release on PROD environment - August 2024</t>
   </si>
   <si>
@@ -308,52 +303,54 @@
     <t>PLANNED SCOPE</t>
   </si>
   <si>
-    <t xml:space="preserve">CMP-424 – Documentation ongoing, ~70% achieved. Jean Verducci will continue to work. Deliverable needs to be provided until 24th July 2024.
-</t>
-  </si>
-  <si>
-    <t>CMP-422 – During this three weeks of sprint, less then 3 hours of training.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP-413 – Development. So far no doubts raised. 
+    <t>DEV/QUAL non access for 2 days;</t>
+  </si>
+  <si>
+    <t>PREPROD non access for 1 day;</t>
+  </si>
+  <si>
+    <t>ADDED SCOPE</t>
+  </si>
+  <si>
+    <t>CMP-261</t>
+  </si>
+  <si>
+    <t>BCT scope file contents seem incomplete</t>
+  </si>
+  <si>
+    <t>CMP-244</t>
+  </si>
+  <si>
+    <t>File integration (e.g. MNI) takes file before it is fully copied onto NFS</t>
+  </si>
+  <si>
+    <t>CMP-390 - Analyzed done but no development done.</t>
+  </si>
+  <si>
+    <t>CMP-393 - Defect added to the sprint scope. Fixed and tested on QUAL</t>
+  </si>
+  <si>
+    <t>CMP-244 - Analyzed and sent back to backlog. Will be considered in sprints based on priority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP-261 - Confirmed by Catherine V. Waiting for Erik Celis to cross-check and close. </t>
+  </si>
+  <si>
+    <t>CMP-416 - UI Defect raised, need support from Abdessalem Dridi in order to unlock the development and tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP-413 - Development. So far no doubts raised. 
 CMP-413 – Development. So far no doubts raised. 
 </t>
   </si>
   <si>
-    <t>CMP-416 – UI Defect raised, need support from Abdessalem Dridi in order to unlock the development and tests.</t>
-  </si>
-  <si>
-    <t>DEV/QUAL non access for 2 days;</t>
-  </si>
-  <si>
-    <t>PREPROD non access for 1 day;</t>
-  </si>
-  <si>
-    <t>ADDED SCOPE</t>
-  </si>
-  <si>
-    <t>CMP-393 – Defect added to the sprint scope. Fixed and tested on QUAL</t>
-  </si>
-  <si>
-    <t>CMP-390 – Analyzed done but no development done.</t>
-  </si>
-  <si>
-    <t>CMP-244 – Analyzed and sent back to backlog. Will be considered in sprints based on priority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP-261 -  Confirmed by Catherine V. Waiting for Erik Celis to cross-check and close. </t>
-  </si>
-  <si>
-    <t>CMP-261</t>
-  </si>
-  <si>
-    <t>BCT scope file contents seem incomplete</t>
-  </si>
-  <si>
-    <t>CMP-244</t>
-  </si>
-  <si>
-    <t>File integration (e.g. MNI) takes file before it is fully copied onto NFS</t>
+    <t>CMP-422 - During this three weeks of sprint, less then 3 hours of training.</t>
+  </si>
+  <si>
+    <t>CMP-424 - Documentation ongoing, ~70% achieved. Jean Verducci will continue to work. Deliverable needs to be provided until 24th July 2024.</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
   </si>
 </sst>
 </file>
@@ -544,14 +541,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,51 +565,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -672,6 +632,43 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -888,7 +885,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[3]Sprint 29'!$A$7:$A$8</c:f>
+              <c:f>'[1]Sprint 29'!$A$7:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -902,9 +899,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[3]Sprint 29'!$B$7:$B$8</c:f>
+              <c:f>'[1]Sprint 29'!$B$7:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
@@ -988,7 +985,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1206,11 +1203,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>[3]Delivery_Sprints!$A$5:$A$19</c15:sqref>
+                    <c15:sqref>[1]Delivery_Sprints!$A$5:$A$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>[3]Delivery_Sprints!$A$5:$A$13</c:f>
+              <c:f>[1]Delivery_Sprints!$A$5:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1248,13 +1245,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>[3]Delivery_Sprints!$B$5:$B$19</c15:sqref>
+                    <c15:sqref>[1]Delivery_Sprints!$B$5:$B$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>[3]Delivery_Sprints!$B$5:$B$13</c:f>
+              <c:f>[1]Delivery_Sprints!$B$5:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.81818181818181823</c:v>
@@ -1364,7 +1361,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1583,7 +1580,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'[3]Sprint 29'!$R$4:$R$5</c:f>
+              <c:f>'[1]Sprint 29'!$R$4:$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1597,7 +1594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[3]Sprint 29'!$S$4:$S$5</c:f>
+              <c:f>'[1]Sprint 29'!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3539,120 +3536,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="CONCERTO SUMMARY"/>
-      <sheetName val="SPRINT 30"/>
-      <sheetName val="SPRINT 31"/>
-      <sheetName val="SPRINT 32"/>
-      <sheetName val="SPRINT 33"/>
-      <sheetName val="SPRINT 34"/>
-      <sheetName val="DATA"/>
-      <sheetName val="BACKLOG"/>
-      <sheetName val="DOCUMENTATION"/>
-      <sheetName val="BACKLOG_PERFORMANCE"/>
-      <sheetName val="KPI"/>
-      <sheetName val="AGILE"/>
-      <sheetName val="INCIDENT TRACKER"/>
-      <sheetName val="HIGH LEVEL VIEW"/>
-      <sheetName val="SPRINT 0"/>
-      <sheetName val="SPRINT 1"/>
-      <sheetName val="SPRINT 2"/>
-      <sheetName val="SPRINT 3"/>
-      <sheetName val="SPRINT 4"/>
-      <sheetName val="SPRINT 5"/>
-      <sheetName val="SPRINT 6"/>
-      <sheetName val="SPRINT 7"/>
-      <sheetName val="SPRINT 8"/>
-      <sheetName val="SPRINT 9"/>
-      <sheetName val="SPRINT 10"/>
-      <sheetName val="SPRINT 11"/>
-      <sheetName val="SPRINT 12"/>
-      <sheetName val="SPRINT 13"/>
-      <sheetName val="SPRINT 14"/>
-      <sheetName val="SPRINT 15"/>
-      <sheetName val="SPRINT 16"/>
-      <sheetName val="SPRINT 17"/>
-      <sheetName val="SPRINT 18"/>
-      <sheetName val="SPRINT 19"/>
-      <sheetName val="SPRINT 20"/>
-      <sheetName val="SPRINT 21"/>
-      <sheetName val="SPRINT 22"/>
-      <sheetName val="SPRINT 23"/>
-      <sheetName val="SPRINT 24"/>
-      <sheetName val="SPRINT 25"/>
-      <sheetName val="SPRINT 26"/>
-      <sheetName val="SPRINT 27"/>
-      <sheetName val="SPRINT 28"/>
-      <sheetName val="SPRINT 29"/>
-      <sheetName val="Concerto_Sprints_20240627"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sprint 29"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Sprint 21"/>
       <sheetName val="Sprint 22"/>
       <sheetName val="Sprint 23"/>
@@ -3674,11 +3557,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Compass - Sprint 29</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="R4" t="str">
             <v>Expected Story Points</v>
@@ -3839,14 +3717,102 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Delivery_Sprints"/>
+      <sheetName val="CONCERTO SUMMARY"/>
+      <sheetName val="SPRINT 30"/>
+      <sheetName val="SPRINT 31"/>
+      <sheetName val="SPRINT 32"/>
+      <sheetName val="SPRINT 33"/>
+      <sheetName val="SPRINT 34"/>
+      <sheetName val="SPRINT 35"/>
+      <sheetName val="DATA"/>
+      <sheetName val="BACKLOG"/>
+      <sheetName val="DOCUMENTATION"/>
+      <sheetName val="BACKLOG_PERFORMANCE"/>
+      <sheetName val="KPI"/>
+      <sheetName val="AGILE"/>
+      <sheetName val="INCIDENT TRACKER"/>
+      <sheetName val="HIGH LEVEL VIEW"/>
+      <sheetName val="SPRINT 0"/>
+      <sheetName val="SPRINT 1"/>
+      <sheetName val="SPRINT 2"/>
+      <sheetName val="SPRINT 3"/>
+      <sheetName val="SPRINT 4"/>
+      <sheetName val="SPRINT 5"/>
+      <sheetName val="SPRINT 6"/>
+      <sheetName val="SPRINT 7"/>
+      <sheetName val="SPRINT 8"/>
+      <sheetName val="SPRINT 9"/>
+      <sheetName val="SPRINT 10"/>
+      <sheetName val="SPRINT 11"/>
+      <sheetName val="SPRINT 12"/>
+      <sheetName val="SPRINT 13"/>
+      <sheetName val="SPRINT 14"/>
+      <sheetName val="SPRINT 15"/>
+      <sheetName val="SPRINT 16"/>
+      <sheetName val="SPRINT 17"/>
+      <sheetName val="SPRINT 18"/>
+      <sheetName val="SPRINT 19"/>
+      <sheetName val="SPRINT 20"/>
+      <sheetName val="SPRINT 21"/>
+      <sheetName val="SPRINT 22"/>
+      <sheetName val="SPRINT 23"/>
+      <sheetName val="SPRINT 24"/>
+      <sheetName val="SPRINT 25"/>
+      <sheetName val="SPRINT 26"/>
+      <sheetName val="SPRINT 27"/>
+      <sheetName val="SPRINT 28"/>
+      <sheetName val="SPRINT 29"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3866,10 +3832,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3902,53 +3868,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A14:C18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A14:C18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A14:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="GOALS" dataDxfId="10"/>
-    <tableColumn id="2" name="DATE" dataDxfId="9"/>
-    <tableColumn id="3" name="STATUS" dataDxfId="8"/>
+    <tableColumn id="1" name="GOALS" dataDxfId="22"/>
+    <tableColumn id="2" name="EXPECTED" dataDxfId="21"/>
+    <tableColumn id="3" name="STATUS" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Development_and_Scope12" displayName="Development_and_Scope12" ref="A56:D59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Development_and_Scope12" displayName="Development_and_Scope12" ref="A56:D59" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A56:D59"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="3"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="2"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="1"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="17"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="16"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="15"/>
+    <tableColumn id="4" name="STATUS" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="22"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="21"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="18"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="E4:E10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -3958,10 +3924,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="14"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4233,7 +4199,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,10 +4247,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4328,24 +4294,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>5</v>
@@ -4353,20 +4319,20 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="24">
+        <v>75</v>
+      </c>
+      <c r="B15" s="22">
         <v>45485</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="24">
+        <v>76</v>
+      </c>
+      <c r="B16" s="22">
         <v>45485</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -4375,9 +4341,9 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="24">
+        <v>78</v>
+      </c>
+      <c r="B17" s="22">
         <v>45485</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -4386,13 +4352,13 @@
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="24">
+        <v>77</v>
+      </c>
+      <c r="B18" s="22">
         <v>45485</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,102 +4369,102 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="23"/>
+      <c r="A24" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -4526,10 +4492,10 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="22"/>
+      <c r="A40" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
@@ -4614,37 +4580,37 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>90</v>
+      <c r="A51" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>91</v>
+      <c r="A52" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>92</v>
+      <c r="A53" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="B53" s="1"/>
     </row>
@@ -4653,10 +4619,10 @@
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="22"/>
+      <c r="A55" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="30"/>
     </row>
     <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
@@ -4733,7 +4699,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1"/>
     </row>
@@ -4742,10 +4708,10 @@
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="30"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -4766,10 +4732,10 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4780,10 +4746,10 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4797,13 +4763,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1"/>
     </row>
@@ -4953,12 +4919,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/Excel_Files/review.xlsx
+++ b/Excel_Files/review.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="JIRA" localSheetId="0">[2]!JIRA_TABLE[#Data]</definedName>
+    <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -264,9 +264,6 @@
     <t>ENDED</t>
   </si>
   <si>
-    <t>SPRINT GOALS</t>
-  </si>
-  <si>
     <t>GOALS</t>
   </si>
   <si>
@@ -339,18 +336,21 @@
     <t>CMP-416 - UI Defect raised, need support from Abdessalem Dridi in order to unlock the development and tests.</t>
   </si>
   <si>
-    <t xml:space="preserve">CMP-413 - Development. So far no doubts raised. 
+    <t>CMP-422 - During this three weeks of sprint, less then 3 hours of training.</t>
+  </si>
+  <si>
+    <t>CMP-424 - Documentation ongoing, ~70% achieved. Jean Verducci will continue to work. Deliverable needs to be provided until 24th July 2024.</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+  </si>
+  <si>
+    <t>DEFINITION OF GOALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP-413 - Development. So far no doubts raised.
 CMP-413 – Development. So far no doubts raised. 
 </t>
-  </si>
-  <si>
-    <t>CMP-422 - During this three weeks of sprint, less then 3 hours of training.</t>
-  </si>
-  <si>
-    <t>CMP-424 - Documentation ongoing, ~70% achieved. Jean Verducci will continue to work. Deliverable needs to be provided until 24th July 2024.</t>
-  </si>
-  <si>
-    <t>EXPECTED</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]Sprint 29'!$A$7:$A$8</c:f>
+              <c:f>'[2]Sprint 29'!$A$7:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -899,7 +899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Sprint 29'!$B$7:$B$8</c:f>
+              <c:f>'[2]Sprint 29'!$B$7:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1203,11 +1203,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>[1]Delivery_Sprints!$A$5:$A$19</c15:sqref>
+                    <c15:sqref>[2]Delivery_Sprints!$A$5:$A$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>[1]Delivery_Sprints!$A$5:$A$13</c:f>
+              <c:f>[2]Delivery_Sprints!$A$5:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1245,11 +1245,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>[1]Delivery_Sprints!$B$5:$B$19</c15:sqref>
+                    <c15:sqref>[2]Delivery_Sprints!$B$5:$B$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>[1]Delivery_Sprints!$B$5:$B$13</c:f>
+              <c:f>[2]Delivery_Sprints!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1580,7 +1580,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]Sprint 29'!$R$4:$R$5</c:f>
+              <c:f>'[2]Sprint 29'!$R$4:$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1594,7 +1594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Sprint 29'!$S$4:$S$5</c:f>
+              <c:f>'[2]Sprint 29'!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3536,6 +3536,109 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="CONCERTO SUMMARY"/>
+      <sheetName val="SPRINT 30"/>
+      <sheetName val="SPRINT 31"/>
+      <sheetName val="SPRINT 32"/>
+      <sheetName val="SPRINT 33"/>
+      <sheetName val="SPRINT 34"/>
+      <sheetName val="SPRINT 35"/>
+      <sheetName val="DATA"/>
+      <sheetName val="BACKLOG"/>
+      <sheetName val="DOCUMENTATION"/>
+      <sheetName val="BACKLOG_PERFORMANCE"/>
+      <sheetName val="KPI"/>
+      <sheetName val="AGILE"/>
+      <sheetName val="INCIDENT TRACKER"/>
+      <sheetName val="HIGH LEVEL VIEW"/>
+      <sheetName val="SPRINT 0"/>
+      <sheetName val="SPRINT 1"/>
+      <sheetName val="SPRINT 2"/>
+      <sheetName val="SPRINT 3"/>
+      <sheetName val="SPRINT 4"/>
+      <sheetName val="SPRINT 5"/>
+      <sheetName val="SPRINT 6"/>
+      <sheetName val="SPRINT 7"/>
+      <sheetName val="SPRINT 8"/>
+      <sheetName val="SPRINT 9"/>
+      <sheetName val="SPRINT 10"/>
+      <sheetName val="SPRINT 11"/>
+      <sheetName val="SPRINT 12"/>
+      <sheetName val="SPRINT 13"/>
+      <sheetName val="SPRINT 14"/>
+      <sheetName val="SPRINT 15"/>
+      <sheetName val="SPRINT 16"/>
+      <sheetName val="SPRINT 17"/>
+      <sheetName val="SPRINT 18"/>
+      <sheetName val="SPRINT 19"/>
+      <sheetName val="SPRINT 20"/>
+      <sheetName val="SPRINT 21"/>
+      <sheetName val="SPRINT 22"/>
+      <sheetName val="SPRINT 23"/>
+      <sheetName val="SPRINT 24"/>
+      <sheetName val="SPRINT 25"/>
+      <sheetName val="SPRINT 26"/>
+      <sheetName val="SPRINT 27"/>
+      <sheetName val="SPRINT 28"/>
+      <sheetName val="SPRINT 29"/>
+      <sheetName val="Concerto_Sprints_20240627"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Sprint 21"/>
       <sheetName val="Sprint 22"/>
       <sheetName val="Sprint 23"/>
@@ -3712,107 +3815,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CONCERTO SUMMARY"/>
-      <sheetName val="SPRINT 30"/>
-      <sheetName val="SPRINT 31"/>
-      <sheetName val="SPRINT 32"/>
-      <sheetName val="SPRINT 33"/>
-      <sheetName val="SPRINT 34"/>
-      <sheetName val="SPRINT 35"/>
-      <sheetName val="DATA"/>
-      <sheetName val="BACKLOG"/>
-      <sheetName val="DOCUMENTATION"/>
-      <sheetName val="BACKLOG_PERFORMANCE"/>
-      <sheetName val="KPI"/>
-      <sheetName val="AGILE"/>
-      <sheetName val="INCIDENT TRACKER"/>
-      <sheetName val="HIGH LEVEL VIEW"/>
-      <sheetName val="SPRINT 0"/>
-      <sheetName val="SPRINT 1"/>
-      <sheetName val="SPRINT 2"/>
-      <sheetName val="SPRINT 3"/>
-      <sheetName val="SPRINT 4"/>
-      <sheetName val="SPRINT 5"/>
-      <sheetName val="SPRINT 6"/>
-      <sheetName val="SPRINT 7"/>
-      <sheetName val="SPRINT 8"/>
-      <sheetName val="SPRINT 9"/>
-      <sheetName val="SPRINT 10"/>
-      <sheetName val="SPRINT 11"/>
-      <sheetName val="SPRINT 12"/>
-      <sheetName val="SPRINT 13"/>
-      <sheetName val="SPRINT 14"/>
-      <sheetName val="SPRINT 15"/>
-      <sheetName val="SPRINT 16"/>
-      <sheetName val="SPRINT 17"/>
-      <sheetName val="SPRINT 18"/>
-      <sheetName val="SPRINT 19"/>
-      <sheetName val="SPRINT 20"/>
-      <sheetName val="SPRINT 21"/>
-      <sheetName val="SPRINT 22"/>
-      <sheetName val="SPRINT 23"/>
-      <sheetName val="SPRINT 24"/>
-      <sheetName val="SPRINT 25"/>
-      <sheetName val="SPRINT 26"/>
-      <sheetName val="SPRINT 27"/>
-      <sheetName val="SPRINT 28"/>
-      <sheetName val="SPRINT 29"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4198,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,7 +4296,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4302,16 +4304,16 @@
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>5</v>
@@ -4319,18 +4321,18 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="22">
         <v>45485</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="22">
         <v>45485</v>
@@ -4341,7 +4343,7 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="22">
         <v>45485</v>
@@ -4352,13 +4354,13 @@
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="22">
         <v>45485</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,12 +4371,12 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4382,7 +4384,7 @@
     </row>
     <row r="24" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="31"/>
     </row>
@@ -4493,7 +4495,7 @@
     </row>
     <row r="40" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="30"/>
     </row>
@@ -4580,37 +4582,37 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1"/>
     </row>
@@ -4620,7 +4622,7 @@
     </row>
     <row r="55" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="30"/>
     </row>
@@ -4693,13 +4695,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1"/>
     </row>
@@ -4732,10 +4734,10 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
         <v>89</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4746,10 +4748,10 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
         <v>91</v>
-      </c>
-      <c r="C68" t="s">
-        <v>92</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4763,13 +4765,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1"/>
     </row>
@@ -4919,12 +4921,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/Excel_Files/review.xlsx
+++ b/Excel_Files/review.xlsx
@@ -4200,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel_Files/review.xlsx
+++ b/Excel_Files/review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCOSTA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E64876-3DD1-A54A-A626-3C1B4501266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -27,17 +28,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -356,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
@@ -658,7 +648,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -739,7 +729,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -853,7 +843,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -865,7 +855,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -968,7 +957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171381920"/>
@@ -1013,7 +1002,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171381592"/>
@@ -1052,7 +1041,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1066,7 +1055,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1167,7 +1156,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1180,7 +1169,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1344,7 +1332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="725886168"/>
@@ -1389,7 +1377,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="725888792"/>
@@ -1430,331 +1418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D45B-456D-98C2-B4EA3969658D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D45B-456D-98C2-B4EA3969658D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[2]Sprint 29'!$R$4:$R$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Expected Story Points</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Achieved Story Points</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[2]Sprint 29'!$S$4:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D45B-456D-98C2-B4EA3969658D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
-        <c:axId val="899876184"/>
-        <c:axId val="899874872"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="899876184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="899874872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="899874872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="899876184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1839,43 +1503,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="287">
   <cs:axisTitle>
@@ -2912,525 +2539,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3448,7 +2556,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3480,7 +2594,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3497,43 +2617,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
+      <xdr:colOff>666749</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7939</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3968749</xdr:colOff>
+      <xdr:colOff>4097866</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:rowOff>175683</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138B226E-FB93-794F-9AF7-577212903294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10403416" y="5535083"/>
+          <a:ext cx="4457700" cy="1879600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
@@ -3636,7 +2768,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sprint 21"/>
@@ -3821,115 +2953,115 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A66:D68" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A66:D68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A66:D68" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A66:D68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="JIRA"/>
-    <tableColumn id="3" name="DESCRIPTION"/>
-    <tableColumn id="4" name="STATUS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRIORITY"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="JIRA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DESCRIPTION"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="E12:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A41:D45" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A41:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A41:D45" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A41:D45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="33"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="32"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="31"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRIORITY" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="JIRA" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DESCRIPTION" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="STATUS" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A7:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A7:D8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="28"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="27"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="26"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SPRINT" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="EXPECTED TICKETS" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="STORY POINTS" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="STATUS OF SPRINT" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A14:C18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A14:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table10" displayName="Table10" ref="A14:C18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A14:C18" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="GOALS" dataDxfId="22"/>
-    <tableColumn id="2" name="EXPECTED" dataDxfId="21"/>
-    <tableColumn id="3" name="STATUS" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="GOALS" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="EXPECTED" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="STATUS" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Development_and_Scope12" displayName="Development_and_Scope12" ref="A56:D59" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A56:D59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Development_and_Scope12" displayName="Development_and_Scope12" ref="A56:D59" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A56:D59" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="17"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="16"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="15"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PRIORITY" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="JIRA" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="DESCRIPTION" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="STATUS" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A4:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="C12:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="E4:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="PLANNING_START_END"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="PLANNING_START_END"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A12:A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4197,31 +3329,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4229,7 +3361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>70</v>
       </c>
@@ -4239,7 +3371,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
@@ -4247,14 +3379,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4268,7 +3400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -4282,33 +3414,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
     </row>
-    <row r="13" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -4319,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>74</v>
       </c>
@@ -4330,7 +3462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>75</v>
       </c>
@@ -4341,7 +3473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>77</v>
       </c>
@@ -4352,7 +3484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>76</v>
       </c>
@@ -4363,32 +3495,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="24"/>
@@ -4396,7 +3528,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="26"/>
@@ -4404,7 +3536,7 @@
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="26"/>
@@ -4412,7 +3544,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="26"/>
@@ -4420,7 +3552,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="26"/>
@@ -4428,7 +3560,7 @@
       <c r="E29" s="26"/>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="26"/>
@@ -4436,7 +3568,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="26"/>
@@ -4444,7 +3576,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="27"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="26"/>
@@ -4452,7 +3584,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="27"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="26"/>
@@ -4460,7 +3592,7 @@
       <c r="E33" s="26"/>
       <c r="F33" s="27"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="29"/>
       <c r="C34" s="28"/>
@@ -4468,38 +3600,38 @@
       <c r="E34" s="28"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>16</v>
       </c>
@@ -4513,7 +3645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>17</v>
       </c>
@@ -4527,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>17</v>
       </c>
@@ -4541,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>17</v>
       </c>
@@ -4555,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>19</v>
       </c>
@@ -4569,64 +3701,64 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B55" s="30"/>
     </row>
-    <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>16</v>
       </c>
@@ -4640,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>19</v>
       </c>
@@ -4654,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>19</v>
       </c>
@@ -4668,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>19</v>
       </c>
@@ -4682,40 +3814,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="18"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="30"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -4729,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4743,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4757,19 +3889,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>95</v>
       </c>
@@ -4803,37 +3935,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$B$5:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$5:$E$8</xm:f>
           </x14:formula1>
           <xm:sqref>D8:D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$A$13:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>A67:A68 A42:A46 A57:A60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$13:$E$21</xm:f>
           </x14:formula1>
           <xm:sqref>D67:D68 D42:D46 D57:D60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$4:$E$10</xm:f>
           </x14:formula1>
@@ -4846,23 +3978,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -4870,12 +4002,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
@@ -4886,7 +4018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4898,7 +4030,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4909,27 +4041,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -4940,7 +4072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>48</v>
       </c>
@@ -4951,7 +4083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -4962,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -4973,7 +4105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -4984,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4995,7 +4127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -5006,7 +4138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
@@ -5014,7 +4146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="s">
         <v>37</v>
       </c>
@@ -5022,7 +4154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
@@ -5030,7 +4162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="14" t="s">
         <v>39</v>
       </c>
@@ -5038,17 +4170,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
         <v>42</v>
       </c>
